--- a/template/summary_template.xlsx
+++ b/template/summary_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\Performance_Tool\各岗位绩效合约\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\Performance_Tool\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA5116B5-9BDE-410F-A094-ED7CBB0629A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331D40F7-6F89-4344-AB83-E7ACBD3D2038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="25680" windowHeight="12390"/>
+    <workbookView xWindow="1005" yWindow="2310" windowWidth="22620" windowHeight="10710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,22 +18,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve"> Q/LXYC.G05.01.18—2019</t>
   </si>
@@ -65,90 +54,23 @@
     <t>被考评人员签字</t>
   </si>
   <si>
-    <t>柳静静</t>
-  </si>
-  <si>
-    <t>无加减分项。</t>
-  </si>
-  <si>
-    <t>周玉发</t>
-  </si>
-  <si>
-    <t>刘大鹏</t>
-  </si>
-  <si>
-    <t>王德峰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>亓莹彬</t>
-  </si>
-  <si>
-    <t>赵清恒</t>
-  </si>
-  <si>
-    <t>王云鹏</t>
-  </si>
-  <si>
-    <t>王延龄</t>
-  </si>
-  <si>
-    <t>罗宏国</t>
-  </si>
-  <si>
-    <t>王锋安</t>
-  </si>
-  <si>
-    <t>杨小林</t>
-  </si>
-  <si>
-    <t>芝作骞</t>
-  </si>
-  <si>
-    <t>刘文福</t>
-  </si>
-  <si>
-    <t>陈龙</t>
-  </si>
-  <si>
-    <t>董宝珍</t>
-  </si>
-  <si>
-    <t>王曼洁</t>
-  </si>
-  <si>
-    <t>吴婧</t>
-  </si>
-  <si>
-    <t xml:space="preserve">单位负责人： </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                               制表人：</t>
-  </si>
-  <si>
-    <t>姬发章</t>
+    <t>单位负责人： {单位负责人}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>扣分项：全商品扫码客户，低3个百分点扣1.5分。</t>
+    <t xml:space="preserve">                               制表人：{制表人}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>扣分项：新商通安装使用率完成98%，低2个百分点扣1分，1户卷烟陈列不规范扣0.3分。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位（部门）：永靖县烟草专卖局（营销部）       考评期间：2022.8.1-2022.8.31</t>
+    <t>单位（部门）：{单位（部门）}       考评期间：{_ym}.1-{_ym}.31</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -158,12 +80,14 @@
       <sz val="12"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -175,34 +99,37 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -226,32 +153,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -266,83 +167,65 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -685,11 +568,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="51" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -702,61 +585,61 @@
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-    </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="23" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:5" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-    </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="24" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:5" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-    </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="26"/>
-    </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -766,419 +649,285 @@
       <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
-        <v>1</v>
-      </c>
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" s="4" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="10">
-        <v>100</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
-        <v>2</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="10">
-        <v>100</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="16">
-        <v>3</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="10">
-        <v>100</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="16">
-        <v>4</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="10">
-        <v>100</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="H11" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="16">
-        <v>5</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="10">
-        <v>100</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="16">
-        <v>6</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="10">
-        <v>100</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="16">
-        <v>7</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="10">
-        <v>100</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="16">
-        <v>8</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="10">
-        <v>100</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="16">
-        <v>9</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="10">
-        <v>98.5</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="1:6" s="4" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="16">
-        <v>10</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="10">
-        <v>100</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="12"/>
-    </row>
-    <row r="18" spans="1:6" s="4" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="16">
-        <v>11</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="10">
-        <v>100</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="1:6" s="4" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="16">
-        <v>12</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="10">
-        <v>100</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" s="5" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="16">
-        <v>13</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="10">
-        <v>98.7</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" s="4" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="16">
-        <v>14</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="10">
-        <v>100</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="1:6" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="16">
-        <v>15</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="10">
-        <v>100</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="12"/>
-    </row>
-    <row r="23" spans="1:6" s="4" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="16">
-        <v>16</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="10">
-        <v>100</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="12"/>
-    </row>
-    <row r="24" spans="1:6" s="4" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="7">
-        <v>17</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="10">
-        <v>100</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="12"/>
-    </row>
-    <row r="25" spans="1:6" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="7">
-        <v>18</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="10">
-        <v>100</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" spans="1:6" s="4" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="20"/>
-    </row>
-    <row r="27" spans="1:6" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="14"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
     </row>
     <row r="29" spans="1:6" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="14"/>
+      <c r="D29" s="11"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="14"/>
+      <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:6" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="14"/>
+      <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:6" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="14"/>
+      <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="14"/>
+      <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="14"/>
+      <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:4" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="14"/>
+      <c r="D35" s="11"/>
     </row>
     <row r="36" spans="1:4" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="14"/>
+      <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:4" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="14"/>
-    </row>
-    <row r="38" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-    </row>
-    <row r="39" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" spans="1:4" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="1:4" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="11"/>
     </row>
     <row r="40" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
     </row>
     <row r="41" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
     </row>
     <row r="42" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
     </row>
     <row r="43" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
     </row>
     <row r="44" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
     </row>
     <row r="45" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
     </row>
     <row r="46" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
     </row>
     <row r="47" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+    </row>
+    <row r="48" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+    </row>
+    <row r="49" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
@@ -1195,7 +944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -1210,7 +959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
